--- a/data/input/tree/meaningfulness/mechanical/0_degree/tensile_strain_at_break.xlsx
+++ b/data/input/tree/meaningfulness/mechanical/0_degree/tensile_strain_at_break.xlsx
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.3166666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.7166666666666667</v>
       </c>
     </row>
   </sheetData>
